--- a/mvideo_notebooks.xlsx
+++ b/mvideo_notebooks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
   <si>
     <t>Название</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Intel HD Graphics 500</t>
   </si>
   <si>
-    <t>Windows 10 Домашняя</t>
-  </si>
-  <si>
     <t>21999</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>Intel HD Graphics 405</t>
   </si>
   <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
     <t>27999</t>
   </si>
   <si>
@@ -415,19 +409,22 @@
     <t>Radeon Vega 8</t>
   </si>
   <si>
-    <t>Ноутбук Acer Aspire 3 A314-22-R2BV NX.HVVER.00Z</t>
-  </si>
-  <si>
-    <t>66999</t>
-  </si>
-  <si>
-    <t>27000</t>
-  </si>
-  <si>
     <t>Ноутбук Lenovo IdeaPad 3 14ADA05 (81W000KNRU)</t>
   </si>
   <si>
     <t>Ноутбук HP 17-cn0101ur 5D5G4EA</t>
+  </si>
+  <si>
+    <t>Ноутбук HP 15s-eq2122ur 601F9EA</t>
+  </si>
+  <si>
+    <t>47999</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>1440</t>
   </si>
 </sst>
 </file>
@@ -1105,34 +1102,28 @@
       <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1150,30 +1141,30 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1182,33 +1173,33 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
         <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>83</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1217,21 +1208,21 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>89</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1243,7 +1234,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1252,21 +1243,21 @@
         <v>17</v>
       </c>
       <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
         <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -1278,7 +1269,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1287,13 +1278,13 @@
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
         <v>45</v>
@@ -1301,54 +1292,48 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1357,27 +1342,27 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>111</v>
-      </c>
-      <c r="J17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -1395,24 +1380,24 @@
         <v>44</v>
       </c>
       <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" t="s">
         <v>116</v>
-      </c>
-      <c r="J18" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1427,24 +1412,24 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
         <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -1455,31 +1440,25 @@
       <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
         <v>104</v>
-      </c>
-      <c r="J20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1488,42 +1467,42 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
       </c>
       <c r="I21" t="s">
         <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -1546,19 +1525,19 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1567,33 +1546,33 @@
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1602,51 +1581,51 @@
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
